--- a/Code/Results/Cases/Case_8_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_1/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,34 +415,40 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.29996711258983</v>
+        <v>24.49266632314295</v>
       </c>
       <c r="C2">
-        <v>18.71228480845788</v>
+        <v>18.96828366782543</v>
       </c>
       <c r="D2">
-        <v>3.712146929608842</v>
+        <v>4.333588960490924</v>
       </c>
       <c r="E2">
-        <v>30.09909619486762</v>
+        <v>29.21382029618269</v>
       </c>
       <c r="F2">
-        <v>17.2999510047735</v>
+        <v>18.59124872237463</v>
       </c>
       <c r="G2">
-        <v>2.043908991758983</v>
+        <v>2.071584505415577</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.159216038339132</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.138252493947185</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,36 +466,42 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.85740437499542</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>14.5687144452271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.62815818503517</v>
+        <v>22.88573587628169</v>
       </c>
       <c r="C3">
-        <v>17.57199810504744</v>
+        <v>17.85725570160992</v>
       </c>
       <c r="D3">
-        <v>3.59749845654561</v>
+        <v>4.196859081625459</v>
       </c>
       <c r="E3">
-        <v>27.88810281571637</v>
+        <v>27.32102133038484</v>
       </c>
       <c r="F3">
-        <v>16.59918913251503</v>
+        <v>18.00587086705919</v>
       </c>
       <c r="G3">
-        <v>2.051043767845687</v>
+        <v>2.076468730828436</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.90028629522092</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.942540537153831</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,36 +519,42 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.58751217609845</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>14.3407332244305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.54360327761603</v>
+        <v>21.83970279736576</v>
       </c>
       <c r="C4">
-        <v>16.83526365874923</v>
+        <v>17.14498019991685</v>
       </c>
       <c r="D4">
-        <v>3.525577805703337</v>
+        <v>4.110482788901874</v>
       </c>
       <c r="E4">
-        <v>26.46895975988461</v>
+        <v>26.09414241005118</v>
       </c>
       <c r="F4">
-        <v>16.18963647903525</v>
+        <v>17.64924845131027</v>
       </c>
       <c r="G4">
-        <v>2.055526369339699</v>
+        <v>2.07955589531849</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.735997085624268</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.819518945045894</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,36 +572,42 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.44897348634379</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>14.2082728333152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.08694938015424</v>
+        <v>21.39827057864807</v>
       </c>
       <c r="C5">
-        <v>16.52587764114491</v>
+        <v>16.86313572588381</v>
       </c>
       <c r="D5">
-        <v>3.495912843721082</v>
+        <v>4.076836119671445</v>
       </c>
       <c r="E5">
-        <v>25.87476459299186</v>
+        <v>25.57764346556439</v>
       </c>
       <c r="F5">
-        <v>16.02808891136405</v>
+        <v>17.49084442949468</v>
       </c>
       <c r="G5">
-        <v>2.057380137012188</v>
+        <v>2.080842831687721</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.667542724177149</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.769161091993968</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,36 +625,42 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.39910515610754</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>14.14526399565041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.01023280990493</v>
+        <v>21.32384007689132</v>
       </c>
       <c r="C6">
-        <v>16.47395282490028</v>
+        <v>16.8353225505169</v>
       </c>
       <c r="D6">
-        <v>3.490966312316485</v>
+        <v>4.073836145152685</v>
       </c>
       <c r="E6">
-        <v>25.77512858479972</v>
+        <v>25.49061016046219</v>
       </c>
       <c r="F6">
-        <v>16.00159092923039</v>
+        <v>17.44754621655228</v>
       </c>
       <c r="G6">
-        <v>2.057689629649815</v>
+        <v>2.081065407239584</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.655917759783867</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.761577121908168</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,36 +678,42 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.39121446165234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>14.12160564649061</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.53750426788429</v>
+        <v>21.83321247646425</v>
       </c>
       <c r="C7">
-        <v>16.83112818660624</v>
+        <v>17.19321626836599</v>
       </c>
       <c r="D7">
-        <v>3.525179139713713</v>
+        <v>4.117147111988736</v>
       </c>
       <c r="E7">
-        <v>26.46101104974448</v>
+        <v>26.08648815999262</v>
       </c>
       <c r="F7">
-        <v>16.18743596040851</v>
+        <v>17.60102890494004</v>
       </c>
       <c r="G7">
-        <v>2.055551258425103</v>
+        <v>2.079593170369083</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.734610986851889</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.820713870448712</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,36 +731,42 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.44827462669668</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>14.17126314780701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.73551876822907</v>
+        <v>23.95016255225594</v>
       </c>
       <c r="C8">
-        <v>18.32672470576468</v>
+        <v>18.65577656276812</v>
       </c>
       <c r="D8">
-        <v>3.672947966651937</v>
+        <v>4.296175493917771</v>
       </c>
       <c r="E8">
-        <v>29.34927899219528</v>
+        <v>28.57366895627258</v>
       </c>
       <c r="F8">
-        <v>17.05411325291634</v>
+        <v>18.33033639464374</v>
       </c>
       <c r="G8">
-        <v>2.046348848654694</v>
+        <v>2.073275125169522</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3.070445310790362</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.073227600650782</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,36 +784,42 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.75856900286794</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>14.44169348795232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.58992846810313</v>
+        <v>27.63402988064382</v>
       </c>
       <c r="C9">
-        <v>20.96886708758744</v>
+        <v>21.197725204966</v>
       </c>
       <c r="D9">
-        <v>3.949617738405444</v>
+        <v>4.614753228655371</v>
       </c>
       <c r="E9">
-        <v>34.54416360005666</v>
+        <v>32.94140957282742</v>
       </c>
       <c r="F9">
-        <v>18.91209816875172</v>
+        <v>19.85430217178764</v>
       </c>
       <c r="G9">
-        <v>2.029038174210597</v>
+        <v>2.06152701904097</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3.688970248645137</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.5447492924246</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,36 +837,42 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.5917046794574</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>15.09616439954949</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.1514239417783</v>
+        <v>30.05482127450283</v>
       </c>
       <c r="C10">
-        <v>22.73412734669459</v>
+        <v>22.928038186333</v>
       </c>
       <c r="D10">
-        <v>4.143847419069983</v>
+        <v>4.874742813704069</v>
       </c>
       <c r="E10">
-        <v>38.10541674315342</v>
+        <v>34.9646762972166</v>
       </c>
       <c r="F10">
-        <v>20.38886581392279</v>
+        <v>20.76645788651782</v>
       </c>
       <c r="G10">
-        <v>2.016655865023571</v>
+        <v>2.053507625778628</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>4.0828560900355</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.872324092016694</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,36 +890,42 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.35070574762169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>15.44422833104606</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.25993359089109</v>
+        <v>31.06280360374938</v>
       </c>
       <c r="C11">
-        <v>23.49970860925279</v>
+        <v>23.67909720321394</v>
       </c>
       <c r="D11">
-        <v>4.230104353320488</v>
+        <v>5.319755378876647</v>
       </c>
       <c r="E11">
-        <v>39.67789339784362</v>
+        <v>28.3645749766292</v>
       </c>
       <c r="F11">
-        <v>21.22734920633512</v>
+        <v>19.49143900051977</v>
       </c>
       <c r="G11">
-        <v>2.011067233912696</v>
+        <v>2.051789214662098</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>4.451631542486619</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.959039045160723</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,36 +943,42 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.87826780171814</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>14.22126316644512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.67171679903262</v>
+        <v>31.42548808711483</v>
       </c>
       <c r="C12">
-        <v>23.7843128832263</v>
+        <v>23.9023462235017</v>
       </c>
       <c r="D12">
-        <v>4.262459450767984</v>
+        <v>5.642827013362487</v>
       </c>
       <c r="E12">
-        <v>40.26726686840232</v>
+        <v>22.41126104158498</v>
       </c>
       <c r="F12">
-        <v>21.54455073492708</v>
+        <v>18.26442248682248</v>
       </c>
       <c r="G12">
-        <v>2.008954605754061</v>
+        <v>2.051750605528799</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5.267815255078704</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.968982522168912</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,36 +996,42 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.11967569243916</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>13.1551535732224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.58338413468093</v>
+        <v>31.32574147658034</v>
       </c>
       <c r="C13">
-        <v>23.72325271567976</v>
+        <v>23.8023350085204</v>
       </c>
       <c r="D13">
-        <v>4.2555049839369</v>
+        <v>5.904668838461662</v>
       </c>
       <c r="E13">
-        <v>40.14059250483037</v>
+        <v>16.48110235038558</v>
       </c>
       <c r="F13">
-        <v>21.47624739385646</v>
+        <v>16.90881854901085</v>
       </c>
       <c r="G13">
-        <v>2.009409481375923</v>
+        <v>2.053024761394272</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.295261935674344</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.922986396371375</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,36 +1049,42 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.06767213539621</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>12.08345473812526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.29397023183071</v>
+        <v>31.04587492091814</v>
       </c>
       <c r="C14">
-        <v>23.52322896401708</v>
+        <v>23.59796749859168</v>
       </c>
       <c r="D14">
-        <v>4.23277243299895</v>
+        <v>6.064911838226821</v>
       </c>
       <c r="E14">
-        <v>39.72649888003885</v>
+        <v>12.39948689670872</v>
       </c>
       <c r="F14">
-        <v>21.25345106127962</v>
+        <v>15.87950193874549</v>
       </c>
       <c r="G14">
-        <v>2.010893369838846</v>
+        <v>2.054486513402981</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.098170924744764</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.867096236766066</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,36 +1102,42 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.89812336330238</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>11.32485027251851</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.11566134438054</v>
+        <v>30.8771560147254</v>
       </c>
       <c r="C15">
-        <v>23.4000205008293</v>
+        <v>23.49405501822589</v>
       </c>
       <c r="D15">
-        <v>4.218807784540204</v>
+        <v>6.093011043100423</v>
       </c>
       <c r="E15">
-        <v>39.4720855897196</v>
+        <v>11.41723285621635</v>
       </c>
       <c r="F15">
-        <v>21.11694501275388</v>
+        <v>15.5867530759949</v>
       </c>
       <c r="G15">
-        <v>2.011802686326441</v>
+        <v>2.055159410205087</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.282752320104646</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.841502725540322</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,36 +1155,42 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.79430259681137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>11.1299896727916</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.07785302841312</v>
+        <v>29.90608954675489</v>
       </c>
       <c r="C16">
-        <v>22.68334771287208</v>
+        <v>22.82702198544147</v>
       </c>
       <c r="D16">
-        <v>4.138167417121538</v>
+        <v>5.945605588702913</v>
       </c>
       <c r="E16">
-        <v>38.00175647449707</v>
+        <v>11.28027543478703</v>
       </c>
       <c r="F16">
-        <v>20.33401832548837</v>
+        <v>15.37602402775759</v>
       </c>
       <c r="G16">
-        <v>2.01702176164178</v>
+        <v>2.058301267800048</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.001793318481235</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.713436795145757</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,36 +1208,42 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.32663367291853</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>11.15774339611703</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.42677885381245</v>
+        <v>29.29981657985098</v>
       </c>
       <c r="C17">
-        <v>22.23415244515487</v>
+        <v>22.41983437938699</v>
       </c>
       <c r="D17">
-        <v>4.088153425241781</v>
+        <v>5.742303216938881</v>
       </c>
       <c r="E17">
-        <v>37.08807866683508</v>
+        <v>13.38635553275821</v>
       </c>
       <c r="F17">
-        <v>19.93861965021826</v>
+        <v>15.7802112669253</v>
       </c>
       <c r="G17">
-        <v>2.020232994310831</v>
+        <v>2.059961030497345</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.307931783648366</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.644269112860384</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,36 +1261,42 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.11944004746706</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>11.58299135364639</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.046947438029</v>
+        <v>28.95452436606275</v>
       </c>
       <c r="C18">
-        <v>21.97225679478444</v>
+        <v>22.16444665626625</v>
       </c>
       <c r="D18">
-        <v>4.059189256481922</v>
+        <v>5.465780429740172</v>
       </c>
       <c r="E18">
-        <v>36.55802883949858</v>
+        <v>17.95867208990727</v>
       </c>
       <c r="F18">
-        <v>19.71922768052412</v>
+        <v>16.78554409291046</v>
       </c>
       <c r="G18">
-        <v>2.022084344121928</v>
+        <v>2.060395421184307</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.266155076833628</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.619276282305147</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,36 +1314,42 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.00341954567534</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>12.42595252609114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.91741909144875</v>
+        <v>28.85164769548753</v>
       </c>
       <c r="C19">
-        <v>21.88297495701926</v>
+        <v>22.13903500602907</v>
       </c>
       <c r="D19">
-        <v>4.049348848841772</v>
+        <v>5.173506130908312</v>
       </c>
       <c r="E19">
-        <v>36.37776445352535</v>
+        <v>24.24597306498533</v>
       </c>
       <c r="F19">
-        <v>19.64525149608282</v>
+        <v>18.11461374072026</v>
       </c>
       <c r="G19">
-        <v>2.022712000138848</v>
+        <v>2.059659617645809</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>4.278060908810593</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.643304718169249</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,36 +1367,42 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.96467469230429</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>13.49383433671839</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.49663940566342</v>
+        <v>29.43636915149335</v>
       </c>
       <c r="C20">
-        <v>22.28233491534761</v>
+        <v>22.61293314624111</v>
       </c>
       <c r="D20">
-        <v>4.093497996693085</v>
+        <v>4.829660403423384</v>
       </c>
       <c r="E20">
-        <v>37.1858046053578</v>
+        <v>34.40385939798826</v>
       </c>
       <c r="F20">
-        <v>19.97936938415224</v>
+        <v>20.3946872154569</v>
       </c>
       <c r="G20">
-        <v>2.019890722975315</v>
+        <v>2.0556477065682</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3.977166495449919</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.792827574933824</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,36 +1420,42 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.1411691038638</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>15.24019517860266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.37919336988499</v>
+        <v>31.2128873691445</v>
       </c>
       <c r="C21">
-        <v>23.58212402688103</v>
+        <v>23.87180592760401</v>
       </c>
       <c r="D21">
-        <v>4.239457939530541</v>
+        <v>4.963924874935277</v>
       </c>
       <c r="E21">
-        <v>39.84828698316163</v>
+        <v>37.23156527326921</v>
       </c>
       <c r="F21">
-        <v>21.3188991544826</v>
+        <v>21.41888838623526</v>
       </c>
       <c r="G21">
-        <v>2.010457439416305</v>
+        <v>2.049227471009077</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>4.331854164063795</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.05173183932555</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,36 +1473,42 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.94791686169386</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>15.78587279155189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.56309975540136</v>
+        <v>32.32256361032284</v>
       </c>
       <c r="C22">
-        <v>24.40074205320526</v>
+        <v>24.6138801197208</v>
       </c>
       <c r="D22">
-        <v>4.333052850282511</v>
+        <v>5.059435747161129</v>
       </c>
       <c r="E22">
-        <v>41.55330773732182</v>
+        <v>38.57128553915183</v>
       </c>
       <c r="F22">
-        <v>22.24171177571109</v>
+        <v>22.03675548966449</v>
       </c>
       <c r="G22">
-        <v>2.004312106826866</v>
+        <v>2.045186385304464</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>4.540833089149837</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.212966268023601</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,36 +1526,42 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.65111499022666</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>16.11096486298121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.93541530105217</v>
+        <v>31.73534804202202</v>
       </c>
       <c r="C23">
-        <v>23.96662339225427</v>
+        <v>24.17410756943924</v>
       </c>
       <c r="D23">
-        <v>4.283265111233931</v>
+        <v>5.001185173529103</v>
       </c>
       <c r="E23">
-        <v>40.64623846627671</v>
+        <v>37.86180514530616</v>
       </c>
       <c r="F23">
-        <v>21.74929727521154</v>
+        <v>21.75145750447885</v>
       </c>
       <c r="G23">
-        <v>2.007591146489613</v>
+        <v>2.047321382313501</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>4.430018046149989</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.124763455075183</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,36 +1579,42 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.27563020456801</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>15.97437081622241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.46507265713345</v>
+        <v>29.41053052578191</v>
       </c>
       <c r="C24">
-        <v>22.26056298690717</v>
+        <v>22.52351586716033</v>
       </c>
       <c r="D24">
-        <v>4.091082370915124</v>
+        <v>4.786763194111646</v>
       </c>
       <c r="E24">
-        <v>37.14163760331674</v>
+        <v>35.06520157565711</v>
       </c>
       <c r="F24">
-        <v>19.96094120223439</v>
+        <v>20.60081722598498</v>
       </c>
       <c r="G24">
-        <v>2.020045447546533</v>
+        <v>2.055542008347234</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>4.002604939480796</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.79065573902421</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,36 +1632,42 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.13133575723807</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>15.41479316140643</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.59528256260786</v>
+        <v>26.68629855093528</v>
       </c>
       <c r="C25">
-        <v>20.28516814104458</v>
+        <v>20.61659098146711</v>
       </c>
       <c r="D25">
-        <v>3.876297461711919</v>
+        <v>4.543036311527937</v>
       </c>
       <c r="E25">
-        <v>33.1860734708765</v>
+        <v>31.81296454054986</v>
       </c>
       <c r="F25">
-        <v>18.39326957451287</v>
+        <v>19.36590674883738</v>
       </c>
       <c r="G25">
-        <v>2.033653362898404</v>
+        <v>2.064667127147425</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3.52510738843625</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.422478011629868</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1685,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.34113048339287</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>14.85062811068665</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_8_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_1/res_line/loading_percent.xlsx
@@ -427,52 +427,52 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.49266632314295</v>
+        <v>12.5368460867874</v>
       </c>
       <c r="C2">
-        <v>18.96828366782543</v>
+        <v>6.977492503111908</v>
       </c>
       <c r="D2">
-        <v>4.333588960490924</v>
+        <v>4.903820139297573</v>
       </c>
       <c r="E2">
-        <v>29.21382029618269</v>
+        <v>7.300743049263203</v>
       </c>
       <c r="F2">
-        <v>18.59124872237463</v>
+        <v>25.31665166479547</v>
       </c>
       <c r="G2">
-        <v>2.071584505415577</v>
+        <v>2.133942473272557</v>
       </c>
       <c r="H2">
-        <v>3.159216038339132</v>
+        <v>3.856403867771683</v>
       </c>
       <c r="I2">
-        <v>3.138252493947185</v>
+        <v>4.373424889014911</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>18.65568182252493</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.968095673009995</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.6876252975448</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.314547119210983</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>9.557274989086292</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>14.5687144452271</v>
+        <v>19.28026904910887</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -480,52 +480,52 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.88573587628169</v>
+        <v>11.71719749570951</v>
       </c>
       <c r="C3">
-        <v>17.85725570160992</v>
+        <v>6.744438032224724</v>
       </c>
       <c r="D3">
-        <v>4.196859081625459</v>
+        <v>4.730172386801306</v>
       </c>
       <c r="E3">
-        <v>27.32102133038484</v>
+        <v>7.199689610282423</v>
       </c>
       <c r="F3">
-        <v>18.00587086705919</v>
+        <v>25.17507574378878</v>
       </c>
       <c r="G3">
-        <v>2.076468730828436</v>
+        <v>2.137448472977193</v>
       </c>
       <c r="H3">
-        <v>2.90028629522092</v>
+        <v>4.04514061550608</v>
       </c>
       <c r="I3">
-        <v>2.942540537153831</v>
+        <v>4.523710244608164</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>18.72349694670254</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.93653972539088</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.09362109955753</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.183786940903444</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>9.201943476163525</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.3407332244305</v>
+        <v>19.29160468529772</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -533,52 +533,52 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.83970279736576</v>
+        <v>11.20221948047284</v>
       </c>
       <c r="C4">
-        <v>17.14498019991685</v>
+        <v>6.598026291488919</v>
       </c>
       <c r="D4">
-        <v>4.110482788901874</v>
+        <v>4.621331656701183</v>
       </c>
       <c r="E4">
-        <v>26.09414241005118</v>
+        <v>7.136166567135873</v>
       </c>
       <c r="F4">
-        <v>17.64924845131027</v>
+        <v>25.09435460243911</v>
       </c>
       <c r="G4">
-        <v>2.07955589531849</v>
+        <v>2.139677624726176</v>
       </c>
       <c r="H4">
-        <v>2.735997085624268</v>
+        <v>4.165368978668187</v>
       </c>
       <c r="I4">
-        <v>2.819518945045894</v>
+        <v>4.620044989087142</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>18.76837455056161</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.916236817987504</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.710266474977686</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.102889136509497</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>8.977547500111722</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14.2082728333152</v>
+        <v>19.30362702073952</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -586,52 +586,52 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.39827057864807</v>
+        <v>10.98314374289331</v>
       </c>
       <c r="C5">
-        <v>16.86313572588381</v>
+        <v>6.542120819132595</v>
       </c>
       <c r="D5">
-        <v>4.076836119671445</v>
+        <v>4.577584454127651</v>
       </c>
       <c r="E5">
-        <v>25.57764346556439</v>
+        <v>7.109045340413549</v>
       </c>
       <c r="F5">
-        <v>17.49084442949468</v>
+        <v>25.05500845799863</v>
       </c>
       <c r="G5">
-        <v>2.080842831687721</v>
+        <v>2.140611734506817</v>
       </c>
       <c r="H5">
-        <v>2.667542724177149</v>
+        <v>4.215782867395345</v>
       </c>
       <c r="I5">
-        <v>2.769161091993968</v>
+        <v>4.662618178065486</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>18.78176835297383</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.907290654484256</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.550879429630738</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.071053811670663</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>8.885088171797733</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14.14526399565041</v>
+        <v>19.3040427094145</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -639,52 +639,52 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.32384007689132</v>
+        <v>10.94384178704469</v>
       </c>
       <c r="C6">
-        <v>16.8353225505169</v>
+        <v>6.538404758094229</v>
       </c>
       <c r="D6">
-        <v>4.073836145152685</v>
+        <v>4.57164727732729</v>
       </c>
       <c r="E6">
-        <v>25.49061016046219</v>
+        <v>7.103453182665664</v>
       </c>
       <c r="F6">
-        <v>17.44754621655228</v>
+        <v>25.03878109584467</v>
       </c>
       <c r="G6">
-        <v>2.081065407239584</v>
+        <v>2.140775619144458</v>
       </c>
       <c r="H6">
-        <v>2.655917759783867</v>
+        <v>4.224604620948857</v>
       </c>
       <c r="I6">
-        <v>2.761577121908168</v>
+        <v>4.672662346145825</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>18.77708296544047</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.905257551519032</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.525915200925903</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.067300915198277</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>8.870183489675949</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14.12160564649061</v>
+        <v>19.29718317829557</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -692,52 +692,52 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.83321247646425</v>
+        <v>11.1926360309544</v>
       </c>
       <c r="C7">
-        <v>17.19321626836599</v>
+        <v>6.612475578203407</v>
       </c>
       <c r="D7">
-        <v>4.117147111988736</v>
+        <v>4.624397980607156</v>
       </c>
       <c r="E7">
-        <v>26.08648815999262</v>
+        <v>7.132915325750229</v>
       </c>
       <c r="F7">
-        <v>17.60102890494004</v>
+        <v>25.06719241434359</v>
       </c>
       <c r="G7">
-        <v>2.079593170369083</v>
+        <v>2.139710504064903</v>
       </c>
       <c r="H7">
-        <v>2.734610986851889</v>
+        <v>4.167071804775771</v>
       </c>
       <c r="I7">
-        <v>2.820713870448712</v>
+        <v>4.628314453503612</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>18.74959111952968</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.914681332045078</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.712910131666602</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.10663670878609</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>8.977732398356512</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14.17126314780701</v>
+        <v>19.28455329498512</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -745,52 +745,52 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.95016255225594</v>
+        <v>12.25203601903923</v>
       </c>
       <c r="C8">
-        <v>18.65577656276812</v>
+        <v>6.917390145616137</v>
       </c>
       <c r="D8">
-        <v>4.296175493917771</v>
+        <v>4.849061449508028</v>
       </c>
       <c r="E8">
-        <v>28.57366895627258</v>
+        <v>7.262513024751953</v>
       </c>
       <c r="F8">
-        <v>18.33033639464374</v>
+        <v>25.23183214445321</v>
       </c>
       <c r="G8">
-        <v>2.073275125169522</v>
+        <v>2.135160959197241</v>
       </c>
       <c r="H8">
-        <v>3.070445310790362</v>
+        <v>3.921861126793966</v>
       </c>
       <c r="I8">
-        <v>3.073227600650782</v>
+        <v>4.434107106667966</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.6535047983851</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.955596684625012</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.49266908951433</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.274997582034592</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>9.437878375021491</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14.44169348795232</v>
+        <v>19.25812424904774</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -798,52 +798,52 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.63402988064382</v>
+        <v>14.13274926592179</v>
       </c>
       <c r="C9">
-        <v>21.197725204966</v>
+        <v>7.462127897811157</v>
       </c>
       <c r="D9">
-        <v>4.614753228655371</v>
+        <v>5.263641040101261</v>
       </c>
       <c r="E9">
-        <v>32.94140957282742</v>
+        <v>7.509524915699465</v>
       </c>
       <c r="F9">
-        <v>19.85430217178764</v>
+        <v>25.65097835837655</v>
       </c>
       <c r="G9">
-        <v>2.06152701904097</v>
+        <v>2.126800229165426</v>
       </c>
       <c r="H9">
-        <v>3.688970248645137</v>
+        <v>3.473164879927634</v>
       </c>
       <c r="I9">
-        <v>3.5447492924246</v>
+        <v>4.072486373177638</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>18.52499265106326</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.03098346614221</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.86397648120049</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.591926818062054</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>10.28420600920516</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15.09616439954949</v>
+        <v>19.28143247686936</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -851,52 +851,52 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.05482127450283</v>
+        <v>15.35790258725502</v>
       </c>
       <c r="C10">
-        <v>22.928038186333</v>
+        <v>7.876910471113977</v>
       </c>
       <c r="D10">
-        <v>4.874742813704069</v>
+        <v>5.526987760961902</v>
       </c>
       <c r="E10">
-        <v>34.9646762972166</v>
+        <v>7.619993918243706</v>
       </c>
       <c r="F10">
-        <v>20.76645788651782</v>
+        <v>25.83881192752496</v>
       </c>
       <c r="G10">
-        <v>2.053507625778628</v>
+        <v>2.121111160005501</v>
       </c>
       <c r="H10">
-        <v>4.0828560900355</v>
+        <v>3.187356651155365</v>
       </c>
       <c r="I10">
-        <v>3.872324092016694</v>
+        <v>3.83468628627427</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>18.36313259597547</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.069232750485051</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>12.79113691896204</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.76225011332784</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>10.82450630709331</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15.44422833104606</v>
+        <v>19.23077817610011</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -904,52 +904,52 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.06280360374938</v>
+        <v>15.84582867302092</v>
       </c>
       <c r="C11">
-        <v>23.67909720321394</v>
+        <v>8.312345334317541</v>
       </c>
       <c r="D11">
-        <v>5.319755378876647</v>
+        <v>5.405243148527642</v>
       </c>
       <c r="E11">
-        <v>28.3645749766292</v>
+        <v>7.188450893337041</v>
       </c>
       <c r="F11">
-        <v>19.49143900051977</v>
+        <v>24.70353083045469</v>
       </c>
       <c r="G11">
-        <v>2.051789214662098</v>
+        <v>2.119424178553701</v>
       </c>
       <c r="H11">
-        <v>4.451631542486619</v>
+        <v>3.827910138413307</v>
       </c>
       <c r="I11">
-        <v>3.959039045160723</v>
+        <v>3.782328416232149</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>17.62830942260072</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.021199967944395</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.29477672902955</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.346221540500769</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>10.67917384686413</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14.22126316644512</v>
+        <v>18.44987814745464</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -957,52 +957,52 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.42548808711483</v>
+        <v>16.01805200774162</v>
       </c>
       <c r="C12">
-        <v>23.9023462235017</v>
+        <v>8.58858279618754</v>
       </c>
       <c r="D12">
-        <v>5.642827013362487</v>
+        <v>5.239573039106093</v>
       </c>
       <c r="E12">
-        <v>22.41126104158498</v>
+        <v>6.891368076557229</v>
       </c>
       <c r="F12">
-        <v>18.26442248682248</v>
+        <v>23.74465720631324</v>
       </c>
       <c r="G12">
-        <v>2.051750605528799</v>
+        <v>2.119079041806324</v>
       </c>
       <c r="H12">
-        <v>5.267815255078704</v>
+        <v>4.927312050417202</v>
       </c>
       <c r="I12">
-        <v>3.968982522168912</v>
+        <v>3.770516949338693</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>17.08931482464862</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.031570937762089</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.52774395378135</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.972555606261012</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>10.43615497708438</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13.1551535732224</v>
+        <v>17.8342045666484</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1010,52 +1010,52 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.32574147658034</v>
+        <v>15.95566288531981</v>
       </c>
       <c r="C13">
-        <v>23.8023350085204</v>
+        <v>8.782665602787757</v>
       </c>
       <c r="D13">
-        <v>5.904668838461662</v>
+        <v>5.031535081211829</v>
       </c>
       <c r="E13">
-        <v>16.48110235038558</v>
+        <v>6.684332359085905</v>
       </c>
       <c r="F13">
-        <v>16.90881854901085</v>
+        <v>22.82324360534845</v>
       </c>
       <c r="G13">
-        <v>2.053024761394272</v>
+        <v>2.119778426944091</v>
       </c>
       <c r="H13">
-        <v>6.295261935674344</v>
+        <v>6.187779621153068</v>
       </c>
       <c r="I13">
-        <v>3.922986396371375</v>
+        <v>3.801653590175269</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>16.64352063152506</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.082647032382472</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.57900672298982</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.616596677839276</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>10.10008248669654</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12.08345473812526</v>
+        <v>17.28140292674762</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1063,52 +1063,52 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.04587492091814</v>
+        <v>15.80349649201014</v>
       </c>
       <c r="C14">
-        <v>23.59796749859168</v>
+        <v>8.888850611070172</v>
       </c>
       <c r="D14">
-        <v>6.064911838226821</v>
+        <v>4.865933243144425</v>
       </c>
       <c r="E14">
-        <v>12.39948689670872</v>
+        <v>6.597646254607763</v>
       </c>
       <c r="F14">
-        <v>15.87950193874549</v>
+        <v>22.19523769184609</v>
       </c>
       <c r="G14">
-        <v>2.054486513402981</v>
+        <v>2.120742806430741</v>
       </c>
       <c r="H14">
-        <v>7.098170924744764</v>
+        <v>7.121005524461496</v>
       </c>
       <c r="I14">
-        <v>3.867096236766066</v>
+        <v>3.845225872415811</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>16.37693677248891</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.142444729909945</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.53467363760685</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.383280935122554</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>9.819856554965511</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11.32485027251851</v>
+        <v>16.92396479862681</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1116,52 +1116,52 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.8771560147254</v>
+        <v>15.71337610371536</v>
       </c>
       <c r="C15">
-        <v>23.49405501822589</v>
+        <v>8.902176775708954</v>
       </c>
       <c r="D15">
-        <v>6.093011043100423</v>
+        <v>4.817824736196181</v>
       </c>
       <c r="E15">
-        <v>11.41723285621635</v>
+        <v>6.5833785425728</v>
       </c>
       <c r="F15">
-        <v>15.5867530759949</v>
+        <v>22.04322325857577</v>
       </c>
       <c r="G15">
-        <v>2.055159410205087</v>
+        <v>2.121219390796336</v>
       </c>
       <c r="H15">
-        <v>7.282752320104646</v>
+        <v>7.343541989198463</v>
       </c>
       <c r="I15">
-        <v>3.841502725540322</v>
+        <v>3.869072458253595</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>16.32512643933292</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.158025684016573</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>13.4860917380267</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.328974440655335</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>9.732416828604704</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11.1299896727916</v>
+        <v>16.84485127606552</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1169,52 +1169,52 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.90608954675489</v>
+        <v>15.21966170451179</v>
       </c>
       <c r="C16">
-        <v>22.82702198544147</v>
+        <v>8.706587297174391</v>
       </c>
       <c r="D16">
-        <v>5.945605588702913</v>
+        <v>4.742257774685505</v>
       </c>
       <c r="E16">
-        <v>11.28027543478703</v>
+        <v>6.572222978400966</v>
       </c>
       <c r="F16">
-        <v>15.37602402775759</v>
+        <v>22.13075906910614</v>
       </c>
       <c r="G16">
-        <v>2.058301267800048</v>
+        <v>2.123522251991998</v>
       </c>
       <c r="H16">
-        <v>7.001793318481235</v>
+        <v>7.183748888931531</v>
       </c>
       <c r="I16">
-        <v>3.713436795145757</v>
+        <v>3.969354806810157</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>16.47914007154716</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.125746831218738</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.10266890234058</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.325452639657515</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>9.560278840722363</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11.15774339611703</v>
+        <v>16.96981978660027</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1222,52 +1222,52 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.29981657985098</v>
+        <v>14.91680965988584</v>
       </c>
       <c r="C17">
-        <v>22.41983437938699</v>
+        <v>8.495449756351881</v>
       </c>
       <c r="D17">
-        <v>5.742303216938881</v>
+        <v>4.774740840131879</v>
       </c>
       <c r="E17">
-        <v>13.38635553275821</v>
+        <v>6.599811915983808</v>
       </c>
       <c r="F17">
-        <v>15.7802112669253</v>
+        <v>22.52892728231699</v>
       </c>
       <c r="G17">
-        <v>2.059961030497345</v>
+        <v>2.124781788612672</v>
       </c>
       <c r="H17">
-        <v>6.307931783648366</v>
+        <v>6.541704868647831</v>
       </c>
       <c r="I17">
-        <v>3.644269112860384</v>
+        <v>4.02379105039509</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>16.73392987544171</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.065139879740492</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.82697044998921</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.4439463268802</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>9.580904947433774</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11.58299135364639</v>
+        <v>17.25236986475074</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1275,52 +1275,52 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.95452436606275</v>
+        <v>14.75648126034115</v>
       </c>
       <c r="C18">
-        <v>22.16444665626625</v>
+        <v>8.240072593921864</v>
       </c>
       <c r="D18">
-        <v>5.465780429740172</v>
+        <v>4.901222100921085</v>
       </c>
       <c r="E18">
-        <v>17.95867208990727</v>
+        <v>6.720009269763887</v>
       </c>
       <c r="F18">
-        <v>16.78554409291046</v>
+        <v>23.2666838233379</v>
       </c>
       <c r="G18">
-        <v>2.060395421184307</v>
+        <v>2.125221088509995</v>
       </c>
       <c r="H18">
-        <v>5.266155076833628</v>
+        <v>5.47087806311063</v>
       </c>
       <c r="I18">
-        <v>3.619276282305147</v>
+        <v>4.034650681398724</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>17.13135567618108</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.99966347323966</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.61508644081129</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.697017078266069</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>9.768362968068246</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12.42595252609114</v>
+        <v>17.72329780853708</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1328,52 +1328,52 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.85164769548753</v>
+        <v>14.71546197718455</v>
       </c>
       <c r="C19">
-        <v>22.13903500602907</v>
+        <v>8.01107399927379</v>
       </c>
       <c r="D19">
-        <v>5.173506130908312</v>
+        <v>5.097891308353562</v>
       </c>
       <c r="E19">
-        <v>24.24597306498533</v>
+        <v>6.979634843379882</v>
       </c>
       <c r="F19">
-        <v>18.11461374072026</v>
+        <v>24.1980983393337</v>
       </c>
       <c r="G19">
-        <v>2.059659617645809</v>
+        <v>2.124940740269978</v>
       </c>
       <c r="H19">
-        <v>4.278060908810593</v>
+        <v>4.301435351879719</v>
       </c>
       <c r="I19">
-        <v>3.643304718169249</v>
+        <v>4.022924718318177</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>17.61074566848576</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.975248415660496</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.48226942772445</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.06876929515701</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>10.07419701499589</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13.49383433671839</v>
+        <v>18.29576701002715</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1381,52 +1381,52 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.43636915149335</v>
+        <v>15.02922672613585</v>
       </c>
       <c r="C20">
-        <v>22.61293314624111</v>
+        <v>7.813618782328541</v>
       </c>
       <c r="D20">
-        <v>4.829660403423384</v>
+        <v>5.467223039743554</v>
       </c>
       <c r="E20">
-        <v>34.40385939798826</v>
+        <v>7.580648002124502</v>
       </c>
       <c r="F20">
-        <v>20.3946872154569</v>
+        <v>25.70306026033423</v>
       </c>
       <c r="G20">
-        <v>2.0556477065682</v>
+        <v>2.122639337913651</v>
       </c>
       <c r="H20">
-        <v>3.977166495449919</v>
+        <v>3.263737848113641</v>
       </c>
       <c r="I20">
-        <v>3.792827574933824</v>
+        <v>3.920997372867713</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>18.34409171953849</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.055133765529316</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.56680816456965</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.72695748349276</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>10.68669727763834</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15.24019517860266</v>
+        <v>19.18132833313568</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1434,52 +1434,52 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.2128873691445</v>
+        <v>15.93234274521835</v>
       </c>
       <c r="C21">
-        <v>23.87180592760401</v>
+        <v>8.076876861290717</v>
       </c>
       <c r="D21">
-        <v>4.963924874935277</v>
+        <v>5.705258349690117</v>
       </c>
       <c r="E21">
-        <v>37.23156527326921</v>
+        <v>7.760781389519073</v>
       </c>
       <c r="F21">
-        <v>21.41888838623526</v>
+        <v>26.08888283011337</v>
       </c>
       <c r="G21">
-        <v>2.049227471009077</v>
+        <v>2.118207776579681</v>
       </c>
       <c r="H21">
-        <v>4.331854164063795</v>
+        <v>3.014034715020423</v>
       </c>
       <c r="I21">
-        <v>4.05173183932555</v>
+        <v>3.732077685778822</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>18.35468506513285</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.103111711838624</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.2280228317264</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.944952340248022</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>11.15618822185589</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15.78587279155189</v>
+        <v>19.29702317109269</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1487,52 +1487,52 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.32256361032284</v>
+        <v>16.50030560711826</v>
       </c>
       <c r="C22">
-        <v>24.6138801197208</v>
+        <v>8.241752807198962</v>
       </c>
       <c r="D22">
-        <v>5.059435747161129</v>
+        <v>5.839359619053187</v>
       </c>
       <c r="E22">
-        <v>38.57128553915183</v>
+        <v>7.848493332184953</v>
       </c>
       <c r="F22">
-        <v>22.03675548966449</v>
+        <v>26.30774162416312</v>
       </c>
       <c r="G22">
-        <v>2.045186385304464</v>
+        <v>2.115400306117593</v>
       </c>
       <c r="H22">
-        <v>4.540833089149837</v>
+        <v>2.864597848614447</v>
       </c>
       <c r="I22">
-        <v>4.212966268023601</v>
+        <v>3.604010283072073</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>18.35039190089877</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.12899223358095</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>13.64403153492917</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.05090724491231</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>11.43093674823323</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>16.11096486298121</v>
+        <v>19.35784520218874</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1540,52 +1540,52 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.73534804202202</v>
+        <v>16.20559320402094</v>
       </c>
       <c r="C23">
-        <v>24.17410756943924</v>
+        <v>8.138334899142844</v>
       </c>
       <c r="D23">
-        <v>5.001185173529103</v>
+        <v>5.764586226106896</v>
       </c>
       <c r="E23">
-        <v>37.86180514530616</v>
+        <v>7.804782356163462</v>
       </c>
       <c r="F23">
-        <v>21.75145750447885</v>
+        <v>26.21951931173586</v>
       </c>
       <c r="G23">
-        <v>2.047321382313501</v>
+        <v>2.116874883387955</v>
       </c>
       <c r="H23">
-        <v>4.430018046149989</v>
+        <v>2.943125760643103</v>
       </c>
       <c r="I23">
-        <v>4.124763455075183</v>
+        <v>3.662325025634825</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>18.37393024811028</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.116636720066478</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.41921576888348</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.990099197092342</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>11.28377844156477</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15.97437081622241</v>
+        <v>19.3463012458816</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1593,52 +1593,52 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.41053052578191</v>
+        <v>15.02660084306905</v>
       </c>
       <c r="C24">
-        <v>22.52351586716033</v>
+        <v>7.764088512061258</v>
       </c>
       <c r="D24">
-        <v>4.786763194111646</v>
+        <v>5.480168639535574</v>
       </c>
       <c r="E24">
-        <v>35.06520157565711</v>
+        <v>7.631646846679488</v>
       </c>
       <c r="F24">
-        <v>20.60081722598498</v>
+        <v>25.8520237379432</v>
       </c>
       <c r="G24">
-        <v>2.055542008347234</v>
+        <v>2.122602199116882</v>
       </c>
       <c r="H24">
-        <v>4.002604939480796</v>
+        <v>3.248577131368661</v>
       </c>
       <c r="I24">
-        <v>3.79065573902421</v>
+        <v>3.905135462178705</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>18.43677118330558</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.066270154483261</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.53978259120714</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.763866970241776</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>10.71236811497879</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15.41479316140643</v>
+        <v>19.28066975470276</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1646,52 +1646,52 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.68629855093528</v>
+        <v>13.63996963835568</v>
       </c>
       <c r="C25">
-        <v>20.61659098146711</v>
+        <v>7.343486470535441</v>
       </c>
       <c r="D25">
-        <v>4.543036311527937</v>
+        <v>5.159827543587806</v>
       </c>
       <c r="E25">
-        <v>31.81296454054986</v>
+        <v>7.43920235511429</v>
       </c>
       <c r="F25">
-        <v>19.36590674883738</v>
+        <v>25.485867916814</v>
       </c>
       <c r="G25">
-        <v>2.064667127147425</v>
+        <v>2.129032125454104</v>
       </c>
       <c r="H25">
-        <v>3.52510738843625</v>
+        <v>3.592616806081128</v>
       </c>
       <c r="I25">
-        <v>3.422478011629868</v>
+        <v>4.180642264535771</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>18.5232519467386</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.009028363573488</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.51680539847247</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.514107180076621</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>10.06376294529772</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14.85062811068665</v>
+        <v>19.23686520376103</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_8_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_1/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.5368460867874</v>
+        <v>12.59106844254445</v>
       </c>
       <c r="C2">
-        <v>6.977492503111908</v>
+        <v>7.297741299833828</v>
       </c>
       <c r="D2">
-        <v>4.903820139297573</v>
+        <v>5.233664559783953</v>
       </c>
       <c r="E2">
-        <v>7.300743049263203</v>
+        <v>7.545649849918798</v>
       </c>
       <c r="F2">
-        <v>25.31665166479547</v>
+        <v>23.68598121918994</v>
       </c>
       <c r="G2">
-        <v>2.133942473272557</v>
+        <v>8.234465649158352</v>
       </c>
       <c r="H2">
-        <v>3.856403867771683</v>
+        <v>3.431309617023388</v>
       </c>
       <c r="I2">
-        <v>4.373424889014911</v>
+        <v>3.904866671991531</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>18.65568182252493</v>
+        <v>17.24795393329178</v>
       </c>
       <c r="L2">
-        <v>5.968095673009995</v>
+        <v>13.43535496978922</v>
       </c>
       <c r="M2">
-        <v>10.6876252975448</v>
+        <v>12.04762534867581</v>
       </c>
       <c r="N2">
-        <v>6.314547119210983</v>
+        <v>6.002269945406268</v>
       </c>
       <c r="O2">
-        <v>9.557274989086292</v>
+        <v>11.00430380285828</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.606022635818229</v>
       </c>
       <c r="Q2">
-        <v>19.28026904910887</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.527896826662733</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>17.82474475341315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.71719749570951</v>
+        <v>11.80027210447473</v>
       </c>
       <c r="C3">
-        <v>6.744438032224724</v>
+        <v>7.015230822342224</v>
       </c>
       <c r="D3">
-        <v>4.730172386801306</v>
+        <v>5.072000539261047</v>
       </c>
       <c r="E3">
-        <v>7.199689610282423</v>
+        <v>7.472428240848368</v>
       </c>
       <c r="F3">
-        <v>25.17507574378878</v>
+        <v>23.5560892672694</v>
       </c>
       <c r="G3">
-        <v>2.137448472977193</v>
+        <v>8.694804796309768</v>
       </c>
       <c r="H3">
-        <v>4.04514061550608</v>
+        <v>3.597124749244607</v>
       </c>
       <c r="I3">
-        <v>4.523710244608164</v>
+        <v>4.029219196695044</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>18.72349694670254</v>
+        <v>17.32660576091441</v>
       </c>
       <c r="L3">
-        <v>5.93653972539088</v>
+        <v>13.5639770803824</v>
       </c>
       <c r="M3">
-        <v>10.09362109955753</v>
+        <v>12.07668834304165</v>
       </c>
       <c r="N3">
-        <v>6.183786940903444</v>
+        <v>5.978682262780993</v>
       </c>
       <c r="O3">
-        <v>9.201943476163525</v>
+        <v>10.41395090447006</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.473550538904206</v>
       </c>
       <c r="Q3">
-        <v>19.29160468529772</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.15943881555267</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>17.83380457251861</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.20221948047284</v>
+        <v>11.28471001544776</v>
       </c>
       <c r="C4">
-        <v>6.598026291488919</v>
+        <v>6.838295436681655</v>
       </c>
       <c r="D4">
-        <v>4.621331656701183</v>
+        <v>4.971648341646451</v>
       </c>
       <c r="E4">
-        <v>7.136166567135873</v>
+        <v>7.426611159854297</v>
       </c>
       <c r="F4">
-        <v>25.09435460243911</v>
+        <v>23.47997950946107</v>
       </c>
       <c r="G4">
-        <v>2.139677624726176</v>
+        <v>8.987604871918119</v>
       </c>
       <c r="H4">
-        <v>4.165368978668187</v>
+        <v>3.702816015088543</v>
       </c>
       <c r="I4">
-        <v>4.620044989087142</v>
+        <v>4.109282415386695</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>18.76837455056161</v>
+        <v>17.37653608749245</v>
       </c>
       <c r="L4">
-        <v>5.916236817987504</v>
+        <v>13.64370633012157</v>
       </c>
       <c r="M4">
-        <v>9.710266474977686</v>
+        <v>12.10850974362506</v>
       </c>
       <c r="N4">
-        <v>6.102889136509497</v>
+        <v>5.963447186161665</v>
       </c>
       <c r="O4">
-        <v>8.977547500111722</v>
+        <v>10.03378440626005</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.391974325519796</v>
       </c>
       <c r="Q4">
-        <v>19.30362702073952</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>8.926162104394111</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>17.84229645790781</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.98314374289331</v>
+        <v>11.06500131342561</v>
       </c>
       <c r="C5">
-        <v>6.542120819132595</v>
+        <v>6.770382911356615</v>
       </c>
       <c r="D5">
-        <v>4.577584454127651</v>
+        <v>4.931588463739609</v>
       </c>
       <c r="E5">
-        <v>7.109045340413549</v>
+        <v>7.406947882882145</v>
       </c>
       <c r="F5">
-        <v>25.05500845799863</v>
+        <v>23.4419168734799</v>
       </c>
       <c r="G5">
-        <v>2.140611734506817</v>
+        <v>9.110347883291036</v>
       </c>
       <c r="H5">
-        <v>4.215782867395345</v>
+        <v>3.747156171069943</v>
       </c>
       <c r="I5">
-        <v>4.662618178065486</v>
+        <v>4.145577266861556</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>18.78176835297383</v>
+        <v>17.39178943255604</v>
       </c>
       <c r="L5">
-        <v>5.907290654484256</v>
+        <v>13.67103335703446</v>
       </c>
       <c r="M5">
-        <v>9.550879429630738</v>
+        <v>12.12200052531156</v>
       </c>
       <c r="N5">
-        <v>6.071053811670663</v>
+        <v>5.956663517561134</v>
       </c>
       <c r="O5">
-        <v>8.885088171797733</v>
+        <v>9.87589605599252</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.359903625783184</v>
       </c>
       <c r="Q5">
-        <v>19.3040427094145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.829867464131423</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>17.84076913553121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.94384178704469</v>
+        <v>11.02553436450156</v>
       </c>
       <c r="C6">
-        <v>6.538404758094229</v>
+        <v>6.765199302161791</v>
       </c>
       <c r="D6">
-        <v>4.57164727732729</v>
+        <v>4.926208713863274</v>
       </c>
       <c r="E6">
-        <v>7.103453182665664</v>
+        <v>7.402714347923982</v>
       </c>
       <c r="F6">
-        <v>25.03878109584467</v>
+        <v>23.4259228996935</v>
       </c>
       <c r="G6">
-        <v>2.140775619144458</v>
+        <v>9.131911570697156</v>
       </c>
       <c r="H6">
-        <v>4.224604620948857</v>
+        <v>3.754924792217841</v>
       </c>
       <c r="I6">
-        <v>4.672662346145825</v>
+        <v>4.155158781105286</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>18.77708296544047</v>
+        <v>17.38763319360115</v>
       </c>
       <c r="L6">
-        <v>5.905257551519032</v>
+        <v>13.66905094606504</v>
       </c>
       <c r="M6">
-        <v>9.525915200925903</v>
+        <v>12.12081202845917</v>
       </c>
       <c r="N6">
-        <v>6.067300915198277</v>
+        <v>5.955057086196502</v>
       </c>
       <c r="O6">
-        <v>8.870183489675949</v>
+        <v>9.851116718802626</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.356048213163784</v>
       </c>
       <c r="Q6">
-        <v>19.29718317829557</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>8.814296956926695</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>17.83358690521132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.1926360309544</v>
+        <v>11.27799199594025</v>
       </c>
       <c r="C7">
-        <v>6.612475578203407</v>
+        <v>6.842491538401331</v>
       </c>
       <c r="D7">
-        <v>4.624397980607156</v>
+        <v>4.986861367817037</v>
       </c>
       <c r="E7">
-        <v>7.132915325750229</v>
+        <v>7.425879969405131</v>
       </c>
       <c r="F7">
-        <v>25.06719241434359</v>
+        <v>23.40858113830895</v>
       </c>
       <c r="G7">
-        <v>2.139710504064903</v>
+        <v>9.036740199697928</v>
       </c>
       <c r="H7">
-        <v>4.167071804775771</v>
+        <v>3.705682956902008</v>
       </c>
       <c r="I7">
-        <v>4.628314453503612</v>
+        <v>4.120256104957803</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>18.74959111952968</v>
+        <v>17.33491017537082</v>
       </c>
       <c r="L7">
-        <v>5.914681332045078</v>
+        <v>13.60448345219366</v>
       </c>
       <c r="M7">
-        <v>9.712910131666602</v>
+        <v>12.08482526714566</v>
       </c>
       <c r="N7">
-        <v>6.10663670878609</v>
+        <v>5.961053407480988</v>
       </c>
       <c r="O7">
-        <v>8.977732398356512</v>
+        <v>10.03212813422317</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.39511247901612</v>
       </c>
       <c r="Q7">
-        <v>19.28455329498512</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>8.927595510786489</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>17.7895681343172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.25203601903923</v>
+        <v>12.32552129032566</v>
       </c>
       <c r="C8">
-        <v>6.917390145616137</v>
+        <v>7.185480096624204</v>
       </c>
       <c r="D8">
-        <v>4.849061449508028</v>
+        <v>5.222043263550699</v>
       </c>
       <c r="E8">
-        <v>7.262513024751953</v>
+        <v>7.524391682337803</v>
       </c>
       <c r="F8">
-        <v>25.23183214445321</v>
+        <v>23.46166097779416</v>
       </c>
       <c r="G8">
-        <v>2.135160959197241</v>
+        <v>8.601214460294342</v>
       </c>
       <c r="H8">
-        <v>3.921861126793966</v>
+        <v>3.49300182664023</v>
       </c>
       <c r="I8">
-        <v>4.434107106667966</v>
+        <v>3.962520261627898</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.6535047983851</v>
+        <v>17.1746292572836</v>
       </c>
       <c r="L8">
-        <v>5.955596684625012</v>
+        <v>13.39144061358112</v>
       </c>
       <c r="M8">
-        <v>10.49266908951433</v>
+        <v>11.99043565638486</v>
       </c>
       <c r="N8">
-        <v>6.274997582034592</v>
+        <v>5.989483832070511</v>
       </c>
       <c r="O8">
-        <v>9.437878375021491</v>
+        <v>10.79746903117175</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.564242001394953</v>
       </c>
       <c r="Q8">
-        <v>19.25812424904774</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.408232763978917</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>17.69265815013678</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.13274926592179</v>
+        <v>14.14171080330908</v>
       </c>
       <c r="C9">
-        <v>7.462127897811157</v>
+        <v>7.841661157615561</v>
       </c>
       <c r="D9">
-        <v>5.263641040101261</v>
+        <v>5.620646698482899</v>
       </c>
       <c r="E9">
-        <v>7.509524915699465</v>
+        <v>7.707068403342521</v>
       </c>
       <c r="F9">
-        <v>25.65097835837655</v>
+        <v>23.80304346883152</v>
       </c>
       <c r="G9">
-        <v>2.126800229165426</v>
+        <v>7.561638133828062</v>
       </c>
       <c r="H9">
-        <v>3.473164879927634</v>
+        <v>3.099905176430315</v>
       </c>
       <c r="I9">
-        <v>4.072486373177638</v>
+        <v>3.662820113754476</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>18.52499265106326</v>
+        <v>16.9905690642993</v>
       </c>
       <c r="L9">
-        <v>6.03098346614221</v>
+        <v>13.08779705941503</v>
       </c>
       <c r="M9">
-        <v>11.86397648120049</v>
+        <v>11.98637632767952</v>
       </c>
       <c r="N9">
-        <v>6.591926818062054</v>
+        <v>6.04519979766349</v>
       </c>
       <c r="O9">
-        <v>10.28420600920516</v>
+        <v>12.1622678739837</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>6.887257565918958</v>
       </c>
       <c r="Q9">
-        <v>19.28143247686936</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.28324114485173</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>17.68217903931676</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.35790258725502</v>
+        <v>15.34167200686845</v>
       </c>
       <c r="C10">
-        <v>7.876910471113977</v>
+        <v>8.273211545809282</v>
       </c>
       <c r="D10">
-        <v>5.526987760961902</v>
+        <v>5.938585407815404</v>
       </c>
       <c r="E10">
-        <v>7.619993918243706</v>
+        <v>7.790349972078202</v>
       </c>
       <c r="F10">
-        <v>25.83881192752496</v>
+        <v>23.69564530990636</v>
       </c>
       <c r="G10">
-        <v>2.121111160005501</v>
+        <v>7.665998022148492</v>
       </c>
       <c r="H10">
-        <v>3.187356651155365</v>
+        <v>2.85910144190946</v>
       </c>
       <c r="I10">
-        <v>3.83468628627427</v>
+        <v>3.474944013987242</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.36313259597547</v>
+        <v>16.66680201280736</v>
       </c>
       <c r="L10">
-        <v>6.069232750485051</v>
+        <v>12.72432334494581</v>
       </c>
       <c r="M10">
-        <v>12.79113691896204</v>
+        <v>11.89496453322186</v>
       </c>
       <c r="N10">
-        <v>6.76225011332784</v>
+        <v>6.068304099637724</v>
       </c>
       <c r="O10">
-        <v>10.82450630709331</v>
+        <v>13.06688703825125</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.059098432229121</v>
       </c>
       <c r="Q10">
-        <v>19.23077817610011</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.84531780407314</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>17.42223940875808</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.84582867302092</v>
+        <v>15.86548008417708</v>
       </c>
       <c r="C11">
-        <v>8.312345334317541</v>
+        <v>8.579110608281262</v>
       </c>
       <c r="D11">
-        <v>5.405243148527642</v>
+        <v>5.93956851178721</v>
       </c>
       <c r="E11">
-        <v>7.188450893337041</v>
+        <v>7.393605471683973</v>
       </c>
       <c r="F11">
-        <v>24.70353083045469</v>
+        <v>22.1587722865755</v>
       </c>
       <c r="G11">
-        <v>2.119424178553701</v>
+        <v>10.26032101157114</v>
       </c>
       <c r="H11">
-        <v>3.827910138413307</v>
+        <v>3.577637863545888</v>
       </c>
       <c r="I11">
-        <v>3.782328416232149</v>
+        <v>3.44897513485185</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.62830942260072</v>
+        <v>15.79456281601008</v>
       </c>
       <c r="L11">
-        <v>6.021199967944395</v>
+        <v>12.05717148924547</v>
       </c>
       <c r="M11">
-        <v>13.29477672902955</v>
+        <v>11.26536668835775</v>
       </c>
       <c r="N11">
-        <v>6.346221540500769</v>
+        <v>6.034952177131095</v>
       </c>
       <c r="O11">
-        <v>10.67917384686413</v>
+        <v>13.51450932863205</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.621459445135551</v>
       </c>
       <c r="Q11">
-        <v>18.44987814745464</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.70989074600209</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>16.35220965955153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.01805200774162</v>
+        <v>16.06509126356428</v>
       </c>
       <c r="C12">
-        <v>8.58858279618754</v>
+        <v>8.766448220565509</v>
       </c>
       <c r="D12">
-        <v>5.239573039106093</v>
+        <v>5.826035910906854</v>
       </c>
       <c r="E12">
-        <v>6.891368076557229</v>
+        <v>7.111647166646218</v>
       </c>
       <c r="F12">
-        <v>23.74465720631324</v>
+        <v>21.09119327918029</v>
       </c>
       <c r="G12">
-        <v>2.119079041806324</v>
+        <v>11.79625334202214</v>
       </c>
       <c r="H12">
-        <v>4.927312050417202</v>
+        <v>4.737721872712267</v>
       </c>
       <c r="I12">
-        <v>3.770516949338693</v>
+        <v>3.44288591231751</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.08931482464862</v>
+        <v>15.27235697016423</v>
       </c>
       <c r="L12">
-        <v>6.031570937762089</v>
+        <v>11.69179305093458</v>
       </c>
       <c r="M12">
-        <v>13.52774395378135</v>
+        <v>10.85120297714761</v>
       </c>
       <c r="N12">
-        <v>5.972555606261012</v>
+        <v>6.062595117109084</v>
       </c>
       <c r="O12">
-        <v>10.43615497708438</v>
+        <v>13.71568239817663</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.230606292531828</v>
       </c>
       <c r="Q12">
-        <v>17.8342045666484</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>10.46741188129798</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>15.67100207959058</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.95566288531981</v>
+        <v>16.01963220568551</v>
       </c>
       <c r="C13">
-        <v>8.782665602787757</v>
+        <v>8.927580823586572</v>
       </c>
       <c r="D13">
-        <v>5.031535081211829</v>
+        <v>5.593150292639308</v>
       </c>
       <c r="E13">
-        <v>6.684332359085905</v>
+        <v>6.909120835131623</v>
       </c>
       <c r="F13">
-        <v>22.82324360534845</v>
+        <v>20.35318491173681</v>
       </c>
       <c r="G13">
-        <v>2.119778426944091</v>
+        <v>11.48776987717692</v>
       </c>
       <c r="H13">
-        <v>6.187779621153068</v>
+        <v>6.031946588430489</v>
       </c>
       <c r="I13">
-        <v>3.801653590175269</v>
+        <v>3.466145710149778</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.64352063152506</v>
+        <v>14.97826007514663</v>
       </c>
       <c r="L13">
-        <v>6.082647032382472</v>
+        <v>11.50062517502442</v>
       </c>
       <c r="M13">
-        <v>13.57900672298982</v>
+        <v>10.59185850604908</v>
       </c>
       <c r="N13">
-        <v>5.616596677839276</v>
+        <v>6.131300181938327</v>
       </c>
       <c r="O13">
-        <v>10.10008248669654</v>
+        <v>13.75781661543589</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.860537992736828</v>
       </c>
       <c r="Q13">
-        <v>17.28140292674762</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>10.12204041543588</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>15.26591676135931</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.80349649201014</v>
+        <v>15.87499451188521</v>
       </c>
       <c r="C14">
-        <v>8.888850611070172</v>
+        <v>9.036078470350372</v>
       </c>
       <c r="D14">
-        <v>4.865933243144425</v>
+        <v>5.377790618573104</v>
       </c>
       <c r="E14">
-        <v>6.597646254607763</v>
+        <v>6.825301798975124</v>
       </c>
       <c r="F14">
-        <v>22.19523769184609</v>
+        <v>19.96600267676292</v>
       </c>
       <c r="G14">
-        <v>2.120742806430741</v>
+        <v>10.48399000851543</v>
       </c>
       <c r="H14">
-        <v>7.121005524461496</v>
+        <v>6.979469940621216</v>
       </c>
       <c r="I14">
-        <v>3.845225872415811</v>
+        <v>3.498882191601439</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.37693677248891</v>
+        <v>14.86008394629028</v>
       </c>
       <c r="L14">
-        <v>6.142444729909945</v>
+        <v>11.42759082793373</v>
       </c>
       <c r="M14">
-        <v>13.53467363760685</v>
+        <v>10.47446157373124</v>
       </c>
       <c r="N14">
-        <v>5.383280935122554</v>
+        <v>6.201482942498464</v>
       </c>
       <c r="O14">
-        <v>9.819856554965511</v>
+        <v>13.71672548700501</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.618905949192301</v>
       </c>
       <c r="Q14">
-        <v>16.92396479862681</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.830689267230801</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>15.08984419658308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.71337610371536</v>
+        <v>15.78498520328111</v>
       </c>
       <c r="C15">
-        <v>8.902176775708954</v>
+        <v>9.061909536119943</v>
       </c>
       <c r="D15">
-        <v>4.817824736196181</v>
+        <v>5.304084822791691</v>
       </c>
       <c r="E15">
-        <v>6.5833785425728</v>
+        <v>6.813469305233067</v>
       </c>
       <c r="F15">
-        <v>22.04322325857577</v>
+        <v>19.9190321383711</v>
       </c>
       <c r="G15">
-        <v>2.121219390796336</v>
+        <v>9.933113219552059</v>
       </c>
       <c r="H15">
-        <v>7.343541989198463</v>
+        <v>7.20319320768453</v>
       </c>
       <c r="I15">
-        <v>3.869072458253595</v>
+        <v>3.518047665094267</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.32512643933292</v>
+        <v>14.86204669941012</v>
       </c>
       <c r="L15">
-        <v>6.158025684016573</v>
+        <v>11.43029098700552</v>
       </c>
       <c r="M15">
-        <v>13.4860917380267</v>
+        <v>10.468391938659</v>
       </c>
       <c r="N15">
-        <v>5.328974440655335</v>
+        <v>6.219377271458484</v>
       </c>
       <c r="O15">
-        <v>9.732416828604704</v>
+        <v>13.67322452650795</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.56323034773709</v>
       </c>
       <c r="Q15">
-        <v>16.84485127606552</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.738506131683808</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>15.08705899050151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.21966170451179</v>
+        <v>15.27779652277206</v>
       </c>
       <c r="C16">
-        <v>8.706587297174391</v>
+        <v>8.965917234039372</v>
       </c>
       <c r="D16">
-        <v>4.742257774685505</v>
+        <v>5.118800761813409</v>
       </c>
       <c r="E16">
-        <v>6.572222978400966</v>
+        <v>6.818815837978574</v>
       </c>
       <c r="F16">
-        <v>22.13075906910614</v>
+        <v>20.39400471058689</v>
       </c>
       <c r="G16">
-        <v>2.123522251991998</v>
+        <v>7.82525129368361</v>
       </c>
       <c r="H16">
-        <v>7.183748888931531</v>
+        <v>7.023502523043482</v>
       </c>
       <c r="I16">
-        <v>3.969354806810157</v>
+        <v>3.592705881746872</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.47914007154716</v>
+        <v>15.16813632673781</v>
       </c>
       <c r="L16">
-        <v>6.125746831218738</v>
+        <v>11.64517264010157</v>
       </c>
       <c r="M16">
-        <v>13.10266890234058</v>
+        <v>10.68749952659966</v>
       </c>
       <c r="N16">
-        <v>5.325452639657515</v>
+        <v>6.188775780875997</v>
       </c>
       <c r="O16">
-        <v>9.560278840722363</v>
+        <v>13.32735355820923</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.565668321490186</v>
       </c>
       <c r="Q16">
-        <v>16.96981978660027</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.549114500217183</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>15.48314515898644</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.91680965988584</v>
+        <v>14.96424181013772</v>
       </c>
       <c r="C17">
-        <v>8.495449756351881</v>
+        <v>8.812177573374964</v>
       </c>
       <c r="D17">
-        <v>4.774740840131879</v>
+        <v>5.108433708876735</v>
       </c>
       <c r="E17">
-        <v>6.599811915983808</v>
+        <v>6.851689252608111</v>
       </c>
       <c r="F17">
-        <v>22.52892728231699</v>
+        <v>20.92632103687517</v>
       </c>
       <c r="G17">
-        <v>2.124781788612672</v>
+        <v>7.33912141750826</v>
       </c>
       <c r="H17">
-        <v>6.541704868647831</v>
+        <v>6.355163156453965</v>
       </c>
       <c r="I17">
-        <v>4.02379105039509</v>
+        <v>3.634183842820799</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.73392987544171</v>
+        <v>15.45911066019502</v>
       </c>
       <c r="L17">
-        <v>6.065139879740492</v>
+        <v>11.85996501091531</v>
       </c>
       <c r="M17">
-        <v>12.82697044998921</v>
+        <v>10.90063895708885</v>
       </c>
       <c r="N17">
-        <v>5.4439463268802</v>
+        <v>6.125939833294527</v>
       </c>
       <c r="O17">
-        <v>9.580904947433774</v>
+        <v>13.07456222518842</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.692510599924314</v>
       </c>
       <c r="Q17">
-        <v>17.25236986475074</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.564136450429219</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>15.85695927240436</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.75648126034115</v>
+        <v>14.78890208322284</v>
       </c>
       <c r="C18">
-        <v>8.240072593921864</v>
+        <v>8.603466298080898</v>
       </c>
       <c r="D18">
-        <v>4.901222100921085</v>
+        <v>5.220443227026393</v>
       </c>
       <c r="E18">
-        <v>6.720009269763887</v>
+        <v>6.96268030143475</v>
       </c>
       <c r="F18">
-        <v>23.2666838233379</v>
+        <v>21.67550768655603</v>
       </c>
       <c r="G18">
-        <v>2.125221088509995</v>
+        <v>7.220860799482992</v>
       </c>
       <c r="H18">
-        <v>5.47087806311063</v>
+        <v>5.242554656185602</v>
       </c>
       <c r="I18">
-        <v>4.034650681398724</v>
+        <v>3.638765475003394</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.13135567618108</v>
+        <v>15.8280901253696</v>
       </c>
       <c r="L18">
-        <v>5.99966347323966</v>
+        <v>12.13930198709811</v>
       </c>
       <c r="M18">
-        <v>12.61508644081129</v>
+        <v>11.17674487761036</v>
       </c>
       <c r="N18">
-        <v>5.697017078266069</v>
+        <v>6.053040498534075</v>
       </c>
       <c r="O18">
-        <v>9.768362968068246</v>
+        <v>12.88166260319713</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.957557086818758</v>
       </c>
       <c r="Q18">
-        <v>17.72329780853708</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.753654085466007</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>16.33159022341879</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.71546197718455</v>
+        <v>14.72883679789706</v>
       </c>
       <c r="C19">
-        <v>8.01107399927379</v>
+        <v>8.415419170235507</v>
       </c>
       <c r="D19">
-        <v>5.097891308353562</v>
+        <v>5.416970791283484</v>
       </c>
       <c r="E19">
-        <v>6.979634843379882</v>
+        <v>7.198889548817175</v>
       </c>
       <c r="F19">
-        <v>24.1980983393337</v>
+        <v>22.54838630897622</v>
       </c>
       <c r="G19">
-        <v>2.124940740269978</v>
+        <v>7.149383472067772</v>
       </c>
       <c r="H19">
-        <v>4.301435351879719</v>
+        <v>4.012818955864477</v>
       </c>
       <c r="I19">
-        <v>4.022924718318177</v>
+        <v>3.630148539025758</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.61074566848576</v>
+        <v>16.23986959327927</v>
       </c>
       <c r="L19">
-        <v>5.975248415660496</v>
+        <v>12.45310622469011</v>
       </c>
       <c r="M19">
-        <v>12.48226942772445</v>
+        <v>11.48928110699545</v>
       </c>
       <c r="N19">
-        <v>6.06876929515701</v>
+        <v>6.014939596827657</v>
       </c>
       <c r="O19">
-        <v>10.07419701499589</v>
+        <v>12.76525467464982</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.343823036992961</v>
       </c>
       <c r="Q19">
-        <v>18.29576701002715</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.06649785131636</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>16.85802445323862</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.02922672613585</v>
+        <v>15.01174618744164</v>
       </c>
       <c r="C20">
-        <v>7.813618782328541</v>
+        <v>8.246728554365573</v>
       </c>
       <c r="D20">
-        <v>5.467223039743554</v>
+        <v>5.825319904947042</v>
       </c>
       <c r="E20">
-        <v>7.580648002124502</v>
+        <v>7.751236332253615</v>
       </c>
       <c r="F20">
-        <v>25.70306026033423</v>
+        <v>23.78883083289263</v>
       </c>
       <c r="G20">
-        <v>2.122639337913651</v>
+        <v>7.125181902023677</v>
       </c>
       <c r="H20">
-        <v>3.263737848113641</v>
+        <v>2.919600390318113</v>
       </c>
       <c r="I20">
-        <v>3.920997372867713</v>
+        <v>3.550253499292781</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.34409171953849</v>
+        <v>16.77403012517702</v>
       </c>
       <c r="L20">
-        <v>6.055133765529316</v>
+        <v>12.83400736751376</v>
       </c>
       <c r="M20">
-        <v>12.56680816456965</v>
+        <v>11.93445798393235</v>
       </c>
       <c r="N20">
-        <v>6.72695748349276</v>
+        <v>6.061782206231491</v>
       </c>
       <c r="O20">
-        <v>10.68669727763834</v>
+        <v>12.85939636356905</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.024184113532975</v>
       </c>
       <c r="Q20">
-        <v>19.18132833313568</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.69820260382465</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>17.54462958004023</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.93234274521835</v>
+        <v>15.93556153016281</v>
       </c>
       <c r="C21">
-        <v>8.076876861290717</v>
+        <v>8.340702000552389</v>
       </c>
       <c r="D21">
-        <v>5.705258349690117</v>
+        <v>6.310468754038986</v>
       </c>
       <c r="E21">
-        <v>7.760781389519073</v>
+        <v>7.949886497326474</v>
       </c>
       <c r="F21">
-        <v>26.08888283011337</v>
+        <v>23.15606214252147</v>
       </c>
       <c r="G21">
-        <v>2.118207776579681</v>
+        <v>11.54628077478253</v>
       </c>
       <c r="H21">
-        <v>3.014034715020423</v>
+        <v>2.72149394553312</v>
       </c>
       <c r="I21">
-        <v>3.732077685778822</v>
+        <v>3.415840909336935</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>18.35468506513285</v>
+        <v>16.23661504089675</v>
       </c>
       <c r="L21">
-        <v>6.103111711838624</v>
+        <v>12.36357974511294</v>
       </c>
       <c r="M21">
-        <v>13.2280228317264</v>
+        <v>11.63647896581102</v>
       </c>
       <c r="N21">
-        <v>6.944952340248022</v>
+        <v>6.079254528850167</v>
       </c>
       <c r="O21">
-        <v>11.15618822185589</v>
+        <v>13.4490668788906</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.240483979466614</v>
       </c>
       <c r="Q21">
-        <v>19.29702317109269</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.20329328943958</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>16.89324043187597</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.50030560711826</v>
+        <v>16.52139854654132</v>
       </c>
       <c r="C22">
-        <v>8.241752807198962</v>
+        <v>8.388789855836928</v>
       </c>
       <c r="D22">
-        <v>5.839359619053187</v>
+        <v>6.620286396163297</v>
       </c>
       <c r="E22">
-        <v>7.848493332184953</v>
+        <v>8.060224245361342</v>
       </c>
       <c r="F22">
-        <v>26.30774162416312</v>
+        <v>22.66086193246492</v>
       </c>
       <c r="G22">
-        <v>2.115400306117593</v>
+        <v>15.91311477529178</v>
       </c>
       <c r="H22">
-        <v>2.864597848614447</v>
+        <v>2.60371936669792</v>
       </c>
       <c r="I22">
-        <v>3.604010283072073</v>
+        <v>3.318769457155995</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>18.35039190089877</v>
+        <v>15.85490407848041</v>
       </c>
       <c r="L22">
-        <v>6.12899223358095</v>
+        <v>12.05573066018744</v>
       </c>
       <c r="M22">
-        <v>13.64403153492917</v>
+        <v>11.40970607661576</v>
       </c>
       <c r="N22">
-        <v>7.05090724491231</v>
+        <v>6.08720927524958</v>
       </c>
       <c r="O22">
-        <v>11.43093674823323</v>
+        <v>13.817220377992</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.344416922090666</v>
       </c>
       <c r="Q22">
-        <v>19.35784520218874</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.50035329198201</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>16.41788036868784</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.20559320402094</v>
+        <v>16.21085725830136</v>
       </c>
       <c r="C23">
-        <v>8.138334899142844</v>
+        <v>8.3701047114481</v>
       </c>
       <c r="D23">
-        <v>5.764586226106896</v>
+        <v>6.423246452014514</v>
       </c>
       <c r="E23">
-        <v>7.804782356163462</v>
+        <v>7.996859713624496</v>
       </c>
       <c r="F23">
-        <v>26.21951931173586</v>
+        <v>23.05722068852482</v>
       </c>
       <c r="G23">
-        <v>2.116874883387955</v>
+        <v>12.80240772618478</v>
       </c>
       <c r="H23">
-        <v>2.943125760643103</v>
+        <v>2.663764668928198</v>
       </c>
       <c r="I23">
-        <v>3.662325025634825</v>
+        <v>3.356796874257591</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>18.37393024811028</v>
+        <v>16.12944868112253</v>
       </c>
       <c r="L23">
-        <v>6.116636720066478</v>
+        <v>12.26582452497713</v>
       </c>
       <c r="M23">
-        <v>13.41921576888348</v>
+        <v>11.59094337673316</v>
       </c>
       <c r="N23">
-        <v>6.990099197092342</v>
+        <v>6.085735006720356</v>
       </c>
       <c r="O23">
-        <v>11.28377844156477</v>
+        <v>13.62546672577555</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.285661925735861</v>
       </c>
       <c r="Q23">
-        <v>19.3463012458816</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.33895797055042</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>16.76957208503976</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.02660084306905</v>
+        <v>15.00672190954869</v>
       </c>
       <c r="C24">
-        <v>7.764088512061258</v>
+        <v>8.198175268650848</v>
       </c>
       <c r="D24">
-        <v>5.480168639535574</v>
+        <v>5.837032984796304</v>
       </c>
       <c r="E24">
-        <v>7.631646846679488</v>
+        <v>7.798545059224262</v>
       </c>
       <c r="F24">
-        <v>25.8520237379432</v>
+        <v>23.93539547272299</v>
       </c>
       <c r="G24">
-        <v>2.122602199116882</v>
+        <v>7.098999392048658</v>
       </c>
       <c r="H24">
-        <v>3.248577131368661</v>
+        <v>2.904012160309543</v>
       </c>
       <c r="I24">
-        <v>3.905135462178705</v>
+        <v>3.530880647778611</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.43677118330558</v>
+        <v>16.85882122647196</v>
       </c>
       <c r="L24">
-        <v>6.066270154483261</v>
+        <v>12.89907627241302</v>
       </c>
       <c r="M24">
-        <v>12.53978259120714</v>
+        <v>11.99814947649321</v>
       </c>
       <c r="N24">
-        <v>6.763866970241776</v>
+        <v>6.070487779385618</v>
       </c>
       <c r="O24">
-        <v>10.71236811497879</v>
+        <v>12.8346410613641</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.062990261024038</v>
       </c>
       <c r="Q24">
-        <v>19.28066975470276</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.72440396555738</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>17.64152615100884</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.63996963835568</v>
+        <v>13.6620433979334</v>
       </c>
       <c r="C25">
-        <v>7.343486470535441</v>
+        <v>7.711408709180636</v>
       </c>
       <c r="D25">
-        <v>5.159827543587806</v>
+        <v>5.503946940650221</v>
       </c>
       <c r="E25">
-        <v>7.43920235511429</v>
+        <v>7.651006853815244</v>
       </c>
       <c r="F25">
-        <v>25.485867916814</v>
+        <v>23.72276953419058</v>
       </c>
       <c r="G25">
-        <v>2.129032125454104</v>
+        <v>7.719612137758719</v>
       </c>
       <c r="H25">
-        <v>3.592616806081128</v>
+        <v>3.202838272675679</v>
       </c>
       <c r="I25">
-        <v>4.180642264535771</v>
+        <v>3.755857821015011</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>18.5232519467386</v>
+        <v>17.03969087309678</v>
       </c>
       <c r="L25">
-        <v>6.009028363573488</v>
+        <v>13.16982644524357</v>
       </c>
       <c r="M25">
-        <v>11.51680539847247</v>
+        <v>11.97616925443713</v>
       </c>
       <c r="N25">
-        <v>6.514107180076621</v>
+        <v>6.030080738800252</v>
       </c>
       <c r="O25">
-        <v>10.06376294529772</v>
+        <v>11.8210712535946</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>6.807827162443878</v>
       </c>
       <c r="Q25">
-        <v>19.23686520376103</v>
+        <v>10.05406969149289</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>17.69596406877833</v>
       </c>
     </row>
   </sheetData>
